--- a/Index.xlsx
+++ b/Index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\References\Web Development\Web Development Again\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\References\Web Development\Web Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4506A74-345D-4921-B949-F5B21D3A3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BAE2F6-F064-4E17-B19A-B0DCD0E85788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5976" yWindow="2868" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Folder Name</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>unordered_list.html</t>
+  </si>
+  <si>
+    <t>anchor.html</t>
+  </si>
+  <si>
+    <t>image.html</t>
   </si>
 </sst>
 </file>
@@ -118,9 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -493,11 +504,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="2">
+        <v>44907</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -505,10 +516,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,7 +524,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -524,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -532,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,15 +551,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+      <c r="B10" s="2">
+        <v>44907</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -564,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -580,12 +591,28 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D14">
-    <sortCondition ref="C4:C14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D16">
+    <sortCondition ref="C4:C16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
